--- a/Docs/FitnessCalculator.xlsx
+++ b/Docs/FitnessCalculator.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Target Function</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>#4</t>
+  </si>
+  <si>
+    <t>(((7 + X) - (9 - X)) * ((2 / 8) + (X / 4)))</t>
   </si>
 </sst>
 </file>
@@ -493,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M33"/>
+  <dimension ref="A2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,37 +508,38 @@
     <col min="2" max="2" width="2.6640625" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -544,42 +548,46 @@
         <v>25</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>-10</v>
       </c>
@@ -589,26 +597,30 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
-        <f xml:space="preserve">  ABS(C9 - (7-A9))</f>
-        <v>32.5</v>
-      </c>
-      <c r="F9" s="7">
+        <f>ABS( C9 -  (((7 + A9) - (9 - A9)) * ((2 / 8) + (A9/ 4))))</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="e">
+        <f ca="1" xml:space="preserve">  E9ABS(C9 - (7-A9))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" s="7">
         <f xml:space="preserve">  ABS(C9 - ((A9+A9) *(6/A9)))</f>
         <v>37.5</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <f xml:space="preserve"> ABS(C9-(((2 - 3) / (6 / 2)) / ((A9 - 4) * (A9 / 9))))</f>
         <v>49.521428571428572</v>
       </c>
-      <c r="H9" s="7">
+      <c r="I9" s="7">
         <f xml:space="preserve"> ABS(C9 - ((((2 /A9) * (1 * 8)) * ((4 - 0) / (A9 + A9))) / (((8 - A9) + (A9 + A9)) - ((A9 - A9) / (A9 - 2)))))</f>
         <v>49.66</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <f>A9+1</f>
         <v>-9</v>
@@ -619,28 +631,32 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
-        <f t="shared" ref="E10:E29" si="0" xml:space="preserve">  ABS(C10 - (7-A10))</f>
+        <f t="shared" ref="E10:E29" si="0">ABS( C10 -  (((7 + A10) - (9 - A10)) * ((2 / 8) + (A10/ 4))))</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F29" si="1" xml:space="preserve">  ABS(C10 - (7-A10))</f>
         <v>24</v>
       </c>
-      <c r="F10" s="7">
-        <f t="shared" ref="F10:F29" si="1" xml:space="preserve">  ABS(C10 - ((A10+A10) *(6/A10)))</f>
+      <c r="G10" s="7">
+        <f t="shared" ref="G10:G29" si="2" xml:space="preserve">  ABS(C10 - ((A10+A10) *(6/A10)))</f>
         <v>28</v>
       </c>
-      <c r="G10" s="7">
-        <f t="shared" ref="G10:G29" si="2" xml:space="preserve"> ABS(C10-(((2 - 3) / (6 / 2)) / ((A10 - 4) * (A10 / 9))))</f>
+      <c r="H10" s="7">
+        <f t="shared" ref="H10:H29" si="3" xml:space="preserve"> ABS(C10-(((2 - 3) / (6 / 2)) / ((A10 - 4) * (A10 / 9))))</f>
         <v>40.025641025641029</v>
       </c>
-      <c r="H10" s="7">
-        <f t="shared" ref="H10:H29" si="3" xml:space="preserve"> ABS(C10 - ((((2 /A10) * (1 * 8)) * ((4 - 0) / (A10 + A10))) / (((8 - A10) + (A10 + A10)) - ((A10 - A10) / (A10 - 2)))))</f>
+      <c r="I10" s="7">
+        <f t="shared" ref="I10:I29" si="4" xml:space="preserve"> ABS(C10 - ((((2 /A10) * (1 * 8)) * ((4 - 0) / (A10 + A10))) / (((8 - A10) + (A10 + A10)) - ((A10 - A10) / (A10 - 2)))))</f>
         <v>40.395061728395063</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <f t="shared" ref="A11:A29" si="4">A10+1</f>
+        <f t="shared" ref="A11:A29" si="5">A10+1</f>
         <v>-8</v>
       </c>
       <c r="B11" s="6"/>
@@ -650,26 +666,30 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="F11" s="7">
-        <f t="shared" si="1"/>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
-      <c r="G11" s="7">
-        <f t="shared" si="2"/>
+      <c r="H11" s="7">
+        <f t="shared" si="3"/>
         <v>31.53125</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>31.5</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7</v>
       </c>
       <c r="B12" s="6"/>
@@ -679,27 +699,31 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F12" s="7">
-        <f t="shared" si="1"/>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G12" s="7">
-        <f t="shared" si="2"/>
+      <c r="H12" s="7">
+        <f t="shared" si="3"/>
         <v>24.038961038961038</v>
       </c>
-      <c r="H12" s="7">
-        <f t="shared" si="3"/>
+      <c r="I12" s="7">
+        <f t="shared" si="4"/>
         <v>23.346938775510203</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6</v>
       </c>
       <c r="B13" s="6"/>
@@ -708,28 +732,32 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
         <f xml:space="preserve">  ABS(C13 - (7-A13))</f>
         <v>4.5</v>
       </c>
-      <c r="F13" s="7">
-        <f t="shared" si="1"/>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="G13" s="7">
-        <f t="shared" si="2"/>
+      <c r="H13" s="7">
+        <f t="shared" si="3"/>
         <v>17.55</v>
       </c>
-      <c r="H13" s="7">
-        <f t="shared" si="3"/>
+      <c r="I13" s="7">
+        <f t="shared" si="4"/>
         <v>17.055555555555557</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="B14" s="6"/>
@@ -741,25 +769,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="3"/>
         <v>12.066666666666666</v>
       </c>
-      <c r="H14" s="7">
-        <f t="shared" si="3"/>
+      <c r="I14" s="7">
+        <f t="shared" si="4"/>
         <v>11.573333333333334</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
       <c r="B15" s="6"/>
@@ -769,27 +801,31 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="F15" s="7">
-        <f t="shared" si="1"/>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
-      <c r="G15" s="7">
-        <f t="shared" si="2"/>
+      <c r="H15" s="7">
+        <f t="shared" si="3"/>
         <v>7.59375</v>
       </c>
-      <c r="H15" s="7">
-        <f t="shared" si="3"/>
+      <c r="I15" s="7">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="B16" s="6"/>
@@ -799,27 +835,31 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F16" s="7">
-        <f t="shared" si="1"/>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G16" s="7">
-        <f t="shared" si="2"/>
+      <c r="H16" s="7">
+        <f t="shared" si="3"/>
         <v>4.1428571428571432</v>
       </c>
-      <c r="H16" s="7">
-        <f t="shared" si="3"/>
+      <c r="I16" s="7">
+        <f t="shared" si="4"/>
         <v>3.2888888888888888</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
       <c r="B17" s="6"/>
@@ -829,27 +869,31 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="F17" s="7">
-        <f t="shared" si="1"/>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
-      <c r="G17" s="7">
-        <f t="shared" si="2"/>
+      <c r="H17" s="7">
+        <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
-      <c r="H17" s="7">
-        <f t="shared" si="3"/>
+      <c r="I17" s="7">
+        <f t="shared" si="4"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="B18" s="6"/>
@@ -859,27 +903,31 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F18" s="7">
-        <f t="shared" si="1"/>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G18" s="7">
-        <f t="shared" si="2"/>
+      <c r="H18" s="7">
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="H18" s="7">
-        <f t="shared" si="3"/>
+      <c r="I18" s="7">
+        <f t="shared" si="4"/>
         <v>4.5714285714285712</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B19" s="6"/>
@@ -889,24 +937,28 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="F19" s="8">
+      <c r="G19" s="8">
         <v>0.5</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H19" s="7">
         <v>0.5</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <v>0.5</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B20" s="6"/>
@@ -916,27 +968,31 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F20" s="7">
-        <f t="shared" si="1"/>
+      <c r="G20" s="7">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G20" s="7">
-        <f t="shared" si="2"/>
+      <c r="H20" s="7">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H20" s="7">
-        <f t="shared" si="3"/>
+      <c r="I20" s="7">
+        <f t="shared" si="4"/>
         <v>3.5555555555555554</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="B21" s="6"/>
@@ -946,26 +1002,30 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="F21" s="7">
-        <f t="shared" si="1"/>
+      <c r="G21" s="7">
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
-      <c r="G21" s="7">
-        <f t="shared" si="2"/>
+      <c r="H21" s="7">
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <v>0.7</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="B22" s="6"/>
@@ -977,25 +1037,29 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="7">
-        <f t="shared" si="1"/>
+      <c r="F22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G22" s="7">
-        <f t="shared" si="2"/>
+      <c r="H22" s="7">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H22" s="7">
-        <f t="shared" si="3"/>
+      <c r="I22" s="7">
+        <f t="shared" si="4"/>
         <v>3.6767676767676769</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B23" s="6"/>
@@ -1005,26 +1069,30 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23" s="7">
         <f xml:space="preserve">  ABS(C23 - ((A23+A23) *(6/A23)))</f>
         <v>4.5</v>
       </c>
-      <c r="G23" s="7">
+      <c r="H23" s="7">
         <v>7.5</v>
       </c>
-      <c r="H23" s="7">
-        <f t="shared" si="3"/>
+      <c r="I23" s="7">
+        <f t="shared" si="4"/>
         <v>7.333333333333333</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B24" s="6"/>
@@ -1034,27 +1102,31 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="3"/>
         <v>12.6</v>
       </c>
-      <c r="H24" s="7">
-        <f t="shared" si="3"/>
+      <c r="I24" s="7">
+        <f t="shared" si="4"/>
         <v>11.901538461538461</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B25" s="6"/>
@@ -1064,27 +1136,31 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="F25" s="7">
-        <f t="shared" si="1"/>
+      <c r="G25" s="7">
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="G25" s="7">
-        <f t="shared" si="2"/>
+      <c r="H25" s="7">
+        <f t="shared" si="3"/>
         <v>17.75</v>
       </c>
-      <c r="H25" s="7">
-        <f t="shared" si="3"/>
+      <c r="I25" s="7">
+        <f t="shared" si="4"/>
         <v>17.436507936507937</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B26" s="6"/>
@@ -1094,27 +1170,31 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F26" s="7">
-        <f t="shared" si="1"/>
+      <c r="G26" s="7">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G26" s="7">
-        <f t="shared" si="2"/>
+      <c r="H26" s="7">
+        <f t="shared" si="3"/>
         <v>24.142857142857142</v>
       </c>
-      <c r="H26" s="7">
-        <f t="shared" si="3"/>
+      <c r="I26" s="7">
+        <f t="shared" si="4"/>
         <v>23.956462585034014</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B27" s="6"/>
@@ -1124,27 +1204,31 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
-      <c r="F27" s="7">
-        <f t="shared" si="1"/>
+      <c r="G27" s="7">
+        <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
-      <c r="G27" s="7">
-        <f t="shared" si="2"/>
+      <c r="H27" s="7">
+        <f t="shared" si="3"/>
         <v>31.59375</v>
       </c>
-      <c r="H27" s="7">
-        <f t="shared" si="3"/>
+      <c r="I27" s="7">
+        <f t="shared" si="4"/>
         <v>31.46875</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B28" s="6"/>
@@ -1154,24 +1238,28 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="F28" s="7">
-        <f t="shared" si="1"/>
+      <c r="G28" s="7">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="G28" s="7">
-        <f t="shared" si="2"/>
+      <c r="H28" s="7">
+        <f t="shared" si="3"/>
         <v>40.06666666666667</v>
       </c>
-      <c r="H28" s="7">
-        <f t="shared" si="3"/>
+      <c r="I28" s="7">
+        <f t="shared" si="4"/>
         <v>39.976761074800294</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B29" s="6"/>
@@ -1181,47 +1269,59 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
-      <c r="F29" s="7">
-        <f t="shared" si="1"/>
+      <c r="G29" s="7">
+        <f t="shared" si="2"/>
         <v>37.5</v>
       </c>
-      <c r="G29" s="7">
-        <f t="shared" si="2"/>
+      <c r="H29" s="7">
+        <f t="shared" si="3"/>
         <v>49.55</v>
       </c>
-      <c r="H29" s="7">
-        <f t="shared" si="3"/>
+      <c r="I29" s="7">
+        <f t="shared" si="4"/>
         <v>49.482222222222219</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="5">
+      <c r="C31" s="1">
+        <f>SUM(C9:C30)</f>
+        <v>374.5</v>
+      </c>
+      <c r="E31" s="1">
         <f>SUM(E9:E30)</f>
-        <v>311.5</v>
-      </c>
-      <c r="F31" s="5">
-        <f>SUM(F9:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="5" t="e">
+        <f ca="1">SUM(F9:F30)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G31" s="5">
+        <f>SUM(G9:G30)</f>
         <v>275.5</v>
-      </c>
-      <c r="G31" s="4">
-        <f>SUM(G9:G30)</f>
-        <v>377.27382825507829</v>
       </c>
       <c r="H31" s="4">
         <f>SUM(H9:H30)</f>
+        <v>377.27382825507829</v>
+      </c>
+      <c r="I31" s="4">
+        <f>SUM(I9:I30)</f>
         <v>378.54577236553774</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H33" s="1"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
